--- a/src/test/resources/data/in/playToLogoGame.xlsx
+++ b/src/test/resources/data/in/playToLogoGame.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>Résultat</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>citroën</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>heineken</t>
+  </si>
+  <si>
+    <t>burgerking</t>
   </si>
 </sst>
 </file>
@@ -131,7 +140,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +159,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -163,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -176,11 +191,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF6600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -506,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,16 +827,40 @@
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -855,18 +930,38 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>COUNTIFS($A:$A,$A6,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>COUNTIFS($A:$A,$A16,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D24">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>COUNTIFS($A:$A,$A2,$D:$D, "Échec :*") &gt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:B25 B26 A26:A28">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>COUNTIFS($A:$A,$A25,$D:$D, "Échec :*") &gt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>COUNTIFS($A:$A,$A28,$D:$D, "Échec :*") &gt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/data/in/playToLogoGame.xlsx
+++ b/src/test/resources/data/in/playToLogoGame.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="NoraUi-playToLogoGame" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -118,26 +118,31 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -155,13 +160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FF006058"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,26 +189,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF6600"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -557,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,10 +568,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -587,11 +585,11 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -602,18 +600,18 @@
         <v>16</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="9"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -624,213 +622,213 @@
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="10"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D25">
@@ -838,24 +836,24 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -930,37 +928,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>COUNTIFS($A:$A,$A6,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>COUNTIFS($A:$A,$A16,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:D24">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>COUNTIFS($A:$A,$A2,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25 B26 A26:A28">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>COUNTIFS($A:$A,$A25,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>COUNTIFS($A:$A,$A28,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIFS($A:$A,$A26,$D:$D, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
